--- a/2-Electrical/0 - Development Drawings/1 - Main Board/2 - eeBOM/V5/64013A1_BOM_v5_VK_2019-08-14_FRA190516.xlsx
+++ b/2-Electrical/0 - Development Drawings/1 - Main Board/2 - eeBOM/V5/64013A1_BOM_v5_VK_2019-08-14_FRA190516.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\01_GIT_REPOS\FRA_Sensor_platform\2-Electrical\0 - Development Drawings\1 - Main Board\7 - Quote package\Main v5 Quote Package\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\01_GIT_REPOS\FRA_Sensor_platform\2-Electrical\0 - Development Drawings\1 - Main Board\2 - eeBOM\V5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly_export" sheetId="1" r:id="rId1"/>
@@ -2708,7 +2708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2781,6 +2781,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2793,7 +2796,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -7175,8 +7178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7302,7 +7305,7 @@
       <c r="F4" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="45" t="s">
         <v>519</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -9055,7 +9058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
@@ -11419,7 +11422,7 @@
       <c r="H34" s="11" t="s">
         <v>607</v>
       </c>
-      <c r="I34" s="44" t="s">
+      <c r="I34" s="38" t="s">
         <v>750</v>
       </c>
       <c r="J34" s="10" t="s">
@@ -11895,10 +11898,10 @@
       <c r="I41" s="26"/>
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
-      <c r="L41" s="38" t="s">
+      <c r="L41" s="39" t="s">
         <v>743</v>
       </c>
-      <c r="M41" s="39"/>
+      <c r="M41" s="40"/>
       <c r="N41" s="27" t="e">
         <f>SUM(N2:N40)</f>
         <v>#VALUE!</v>
@@ -11925,10 +11928,10 @@
       <c r="I42" s="26"/>
       <c r="J42" s="25"/>
       <c r="K42" s="25"/>
-      <c r="L42" s="40" t="s">
+      <c r="L42" s="41" t="s">
         <v>744</v>
       </c>
-      <c r="M42" s="41"/>
+      <c r="M42" s="42"/>
       <c r="N42" s="27" t="e">
         <f>0.04*N41</f>
         <v>#VALUE!</v>
@@ -11955,10 +11958,10 @@
       <c r="I43" s="26"/>
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
-      <c r="L43" s="40" t="s">
+      <c r="L43" s="41" t="s">
         <v>745</v>
       </c>
-      <c r="M43" s="41"/>
+      <c r="M43" s="42"/>
       <c r="N43" s="27">
         <v>0</v>
       </c>
@@ -11984,10 +11987,10 @@
       <c r="I44" s="26"/>
       <c r="J44" s="25"/>
       <c r="K44" s="25"/>
-      <c r="L44" s="42" t="s">
+      <c r="L44" s="43" t="s">
         <v>746</v>
       </c>
-      <c r="M44" s="43"/>
+      <c r="M44" s="44"/>
       <c r="N44" s="28" t="e">
         <f>SUM(N41:N43)</f>
         <v>#VALUE!</v>
